--- a/Examples/NETS_NYPS_68Bus_LowDamping.xlsx
+++ b/Examples/NETS_NYPS_68Bus_LowDamping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F0DC3E-2687-48C2-B6C7-91D76A8C734A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E2C92A-D1F6-414B-9B47-7AF9CF1FE0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3292,7 +3292,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6221,7 +6221,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
